--- a/Projeto-3/indicator_t above 15 labour to pop percent.xlsx
+++ b/Projeto-3/indicator_t above 15 labour to pop percent.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Documents\GitHub\CD_projeto3\Projeto-3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="11175" windowHeight="4305"/>
+    <workbookView xWindow="270" yWindow="590" windowWidth="11180" windowHeight="4310"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="Download" sheetId="5" r:id="rId5"/>
     <sheet name="v" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="228">
   <si>
     <t>Country</t>
   </si>
@@ -702,16 +707,13 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Paises</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00E-00"/>
   </numFmts>
@@ -725,57 +727,67 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF010000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF010000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF010000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF3366FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF010000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF6666CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1410,6 +1422,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1431,9 +1446,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1444,6 +1456,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1451,7 +1466,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1489,9 +1504,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1524,9 +1539,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1559,9 +1591,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1737,21 +1786,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="29" width="14.140625" customWidth="1"/>
-    <col min="30" max="30" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="44.54296875" customWidth="1"/>
+    <col min="2" max="29" width="14.1796875" customWidth="1"/>
+    <col min="30" max="30" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>227</v>
-      </c>
+    <row r="1" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
       <c r="B1" s="4">
         <v>1980</v>
       </c>
@@ -1833,12 +1878,12 @@
       <c r="AB1" s="4">
         <v>2006</v>
       </c>
-      <c r="AC1" s="80" t="s">
-        <v>228</v>
+      <c r="AC1" s="73" t="s">
+        <v>227</v>
       </c>
       <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1928,7 +1973,7 @@
       </c>
       <c r="AD2" s="6"/>
     </row>
-    <row r="3" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -2018,7 +2063,7 @@
       </c>
       <c r="AD3" s="6"/>
     </row>
-    <row r="4" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -2108,7 +2153,7 @@
       </c>
       <c r="AD4" s="6"/>
     </row>
-    <row r="5" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2198,7 +2243,7 @@
       </c>
       <c r="AD5" s="6"/>
     </row>
-    <row r="6" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -2288,7 +2333,7 @@
       </c>
       <c r="AD6" s="6"/>
     </row>
-    <row r="7" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -2378,7 +2423,7 @@
       </c>
       <c r="AD7" s="6"/>
     </row>
-    <row r="8" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2468,7 +2513,7 @@
       </c>
       <c r="AD8" s="6"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -2558,7 +2603,7 @@
       </c>
       <c r="AD9" s="6"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -2648,7 +2693,7 @@
       </c>
       <c r="AD10" s="6"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -2738,7 +2783,7 @@
       </c>
       <c r="AD11" s="6"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -2828,7 +2873,7 @@
       </c>
       <c r="AD12" s="6"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -2918,7 +2963,7 @@
       </c>
       <c r="AD13" s="6"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
@@ -3008,7 +3053,7 @@
       </c>
       <c r="AD14" s="6"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -3098,7 +3143,7 @@
       </c>
       <c r="AD15" s="6"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
@@ -3188,7 +3233,7 @@
       </c>
       <c r="AD16" s="6"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -3278,7 +3323,7 @@
       </c>
       <c r="AD17" s="6"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
@@ -3368,7 +3413,7 @@
       </c>
       <c r="AD18" s="6"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
@@ -3458,7 +3503,7 @@
       </c>
       <c r="AD19" s="6"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
@@ -3548,7 +3593,7 @@
       </c>
       <c r="AD20" s="6"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
@@ -3638,7 +3683,7 @@
       </c>
       <c r="AD21" s="6"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>25</v>
       </c>
@@ -3728,7 +3773,7 @@
       </c>
       <c r="AD22" s="6"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
@@ -3818,7 +3863,7 @@
       </c>
       <c r="AD23" s="6"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
@@ -3908,7 +3953,7 @@
       </c>
       <c r="AD24" s="6"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>29</v>
       </c>
@@ -3998,7 +4043,7 @@
       </c>
       <c r="AD25" s="6"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
@@ -4088,7 +4133,7 @@
       </c>
       <c r="AD26" s="6"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -4178,7 +4223,7 @@
       </c>
       <c r="AD27" s="6"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -4268,7 +4313,7 @@
       </c>
       <c r="AD28" s="6"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
@@ -4358,7 +4403,7 @@
       </c>
       <c r="AD29" s="6"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
@@ -4448,7 +4493,7 @@
       </c>
       <c r="AD30" s="6"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>38</v>
       </c>
@@ -4538,7 +4583,7 @@
       </c>
       <c r="AD31" s="6"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
@@ -4628,7 +4673,7 @@
       </c>
       <c r="AD32" s="6"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>40</v>
       </c>
@@ -4718,7 +4763,7 @@
       </c>
       <c r="AD33" s="6"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>41</v>
       </c>
@@ -4808,7 +4853,7 @@
       </c>
       <c r="AD34" s="6"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>43</v>
       </c>
@@ -4898,7 +4943,7 @@
       </c>
       <c r="AD35" s="6"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
@@ -4988,7 +5033,7 @@
       </c>
       <c r="AD36" s="6"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>45</v>
       </c>
@@ -5078,7 +5123,7 @@
       </c>
       <c r="AD37" s="6"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>46</v>
       </c>
@@ -5168,7 +5213,7 @@
       </c>
       <c r="AD38" s="6"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>48</v>
       </c>
@@ -5258,7 +5303,7 @@
       </c>
       <c r="AD39" s="6"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>50</v>
       </c>
@@ -5348,7 +5393,7 @@
       </c>
       <c r="AD40" s="6"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>51</v>
       </c>
@@ -5438,7 +5483,7 @@
       </c>
       <c r="AD41" s="6"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>52</v>
       </c>
@@ -5528,7 +5573,7 @@
       </c>
       <c r="AD42" s="6"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>54</v>
       </c>
@@ -5618,7 +5663,7 @@
       </c>
       <c r="AD43" s="6"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>55</v>
       </c>
@@ -5708,7 +5753,7 @@
       </c>
       <c r="AD44" s="6"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>56</v>
       </c>
@@ -5798,7 +5843,7 @@
       </c>
       <c r="AD45" s="6"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>57</v>
       </c>
@@ -5888,7 +5933,7 @@
       </c>
       <c r="AD46" s="6"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>60</v>
       </c>
@@ -5978,7 +6023,7 @@
       </c>
       <c r="AD47" s="6"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>62</v>
       </c>
@@ -6068,7 +6113,7 @@
       </c>
       <c r="AD48" s="6"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>63</v>
       </c>
@@ -6158,7 +6203,7 @@
       </c>
       <c r="AD49" s="6"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>64</v>
       </c>
@@ -6248,7 +6293,7 @@
       </c>
       <c r="AD50" s="6"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>68</v>
       </c>
@@ -6338,7 +6383,7 @@
       </c>
       <c r="AD51" s="6"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>69</v>
       </c>
@@ -6428,7 +6473,7 @@
       </c>
       <c r="AD52" s="6"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>71</v>
       </c>
@@ -6518,7 +6563,7 @@
       </c>
       <c r="AD53" s="6"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>72</v>
       </c>
@@ -6608,7 +6653,7 @@
       </c>
       <c r="AD54" s="6"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>74</v>
       </c>
@@ -6698,7 +6743,7 @@
       </c>
       <c r="AD55" s="6"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>75</v>
       </c>
@@ -6788,7 +6833,7 @@
       </c>
       <c r="AD56" s="6"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>76</v>
       </c>
@@ -6878,7 +6923,7 @@
       </c>
       <c r="AD57" s="6"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>77</v>
       </c>
@@ -6968,7 +7013,7 @@
       </c>
       <c r="AD58" s="6"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>78</v>
       </c>
@@ -7058,7 +7103,7 @@
       </c>
       <c r="AD59" s="6"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>79</v>
       </c>
@@ -7148,7 +7193,7 @@
       </c>
       <c r="AD60" s="6"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>80</v>
       </c>
@@ -7238,7 +7283,7 @@
       </c>
       <c r="AD61" s="6"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>81</v>
       </c>
@@ -7328,7 +7373,7 @@
       </c>
       <c r="AD62" s="6"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>82</v>
       </c>
@@ -7418,7 +7463,7 @@
       </c>
       <c r="AD63" s="6"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>83</v>
       </c>
@@ -7508,7 +7553,7 @@
       </c>
       <c r="AD64" s="6"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>84</v>
       </c>
@@ -7598,7 +7643,7 @@
       </c>
       <c r="AD65" s="6"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>85</v>
       </c>
@@ -7688,7 +7733,7 @@
       </c>
       <c r="AD66" s="6"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>86</v>
       </c>
@@ -7778,7 +7823,7 @@
       </c>
       <c r="AD67" s="6"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>87</v>
       </c>
@@ -7868,7 +7913,7 @@
       </c>
       <c r="AD68" s="6"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>88</v>
       </c>
@@ -7958,7 +8003,7 @@
       </c>
       <c r="AD69" s="6"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>89</v>
       </c>
@@ -8048,7 +8093,7 @@
       </c>
       <c r="AD70" s="6"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>90</v>
       </c>
@@ -8138,7 +8183,7 @@
       </c>
       <c r="AD71" s="6"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>91</v>
       </c>
@@ -8228,7 +8273,7 @@
       </c>
       <c r="AD72" s="6"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>92</v>
       </c>
@@ -8318,7 +8363,7 @@
       </c>
       <c r="AD73" s="6"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>93</v>
       </c>
@@ -8408,7 +8453,7 @@
       </c>
       <c r="AD74" s="6"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>94</v>
       </c>
@@ -8498,7 +8543,7 @@
       </c>
       <c r="AD75" s="6"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>96</v>
       </c>
@@ -8588,7 +8633,7 @@
       </c>
       <c r="AD76" s="6"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>97</v>
       </c>
@@ -8678,7 +8723,7 @@
       </c>
       <c r="AD77" s="6"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>98</v>
       </c>
@@ -8768,7 +8813,7 @@
       </c>
       <c r="AD78" s="6"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>99</v>
       </c>
@@ -8858,7 +8903,7 @@
       </c>
       <c r="AD79" s="6"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>100</v>
       </c>
@@ -8948,7 +8993,7 @@
       </c>
       <c r="AD80" s="6"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>101</v>
       </c>
@@ -9038,7 +9083,7 @@
       </c>
       <c r="AD81" s="6"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>104</v>
       </c>
@@ -9128,7 +9173,7 @@
       </c>
       <c r="AD82" s="6"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>105</v>
       </c>
@@ -9218,7 +9263,7 @@
       </c>
       <c r="AD83" s="6"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>107</v>
       </c>
@@ -9308,7 +9353,7 @@
       </c>
       <c r="AD84" s="6"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>108</v>
       </c>
@@ -9398,7 +9443,7 @@
       </c>
       <c r="AD85" s="6"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>113</v>
       </c>
@@ -9488,7 +9533,7 @@
       </c>
       <c r="AD86" s="6"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>114</v>
       </c>
@@ -9578,7 +9623,7 @@
       </c>
       <c r="AD87" s="6"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>116</v>
       </c>
@@ -9668,7 +9713,7 @@
       </c>
       <c r="AD88" s="6"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>117</v>
       </c>
@@ -9758,7 +9803,7 @@
       </c>
       <c r="AD89" s="6"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>118</v>
       </c>
@@ -9848,7 +9893,7 @@
       </c>
       <c r="AD90" s="6"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>119</v>
       </c>
@@ -9938,7 +9983,7 @@
       </c>
       <c r="AD91" s="6"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>120</v>
       </c>
@@ -10028,7 +10073,7 @@
       </c>
       <c r="AD92" s="6"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>121</v>
       </c>
@@ -10118,7 +10163,7 @@
       </c>
       <c r="AD93" s="6"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>122</v>
       </c>
@@ -10208,7 +10253,7 @@
       </c>
       <c r="AD94" s="6"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>123</v>
       </c>
@@ -10298,7 +10343,7 @@
       </c>
       <c r="AD95" s="6"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>124</v>
       </c>
@@ -10388,7 +10433,7 @@
       </c>
       <c r="AD96" s="6"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>125</v>
       </c>
@@ -10478,7 +10523,7 @@
       </c>
       <c r="AD97" s="6"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>126</v>
       </c>
@@ -10568,7 +10613,7 @@
       </c>
       <c r="AD98" s="6"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>127</v>
       </c>
@@ -10658,7 +10703,7 @@
       </c>
       <c r="AD99" s="6"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>128</v>
       </c>
@@ -10748,7 +10793,7 @@
       </c>
       <c r="AD100" s="6"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>130</v>
       </c>
@@ -10838,7 +10883,7 @@
       </c>
       <c r="AD101" s="6"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>131</v>
       </c>
@@ -10928,7 +10973,7 @@
       </c>
       <c r="AD102" s="6"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>132</v>
       </c>
@@ -11018,7 +11063,7 @@
       </c>
       <c r="AD103" s="6"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>133</v>
       </c>
@@ -11108,7 +11153,7 @@
       </c>
       <c r="AD104" s="6"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>134</v>
       </c>
@@ -11198,7 +11243,7 @@
       </c>
       <c r="AD105" s="6"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>136</v>
       </c>
@@ -11288,7 +11333,7 @@
       </c>
       <c r="AD106" s="6"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>138</v>
       </c>
@@ -11378,7 +11423,7 @@
       </c>
       <c r="AD107" s="6"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>139</v>
       </c>
@@ -11468,7 +11513,7 @@
       </c>
       <c r="AD108" s="6"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>141</v>
       </c>
@@ -11558,7 +11603,7 @@
       </c>
       <c r="AD109" s="6"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>142</v>
       </c>
@@ -11648,7 +11693,7 @@
       </c>
       <c r="AD110" s="6"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>143</v>
       </c>
@@ -11738,7 +11783,7 @@
       </c>
       <c r="AD111" s="6"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>145</v>
       </c>
@@ -11828,7 +11873,7 @@
       </c>
       <c r="AD112" s="6"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>146</v>
       </c>
@@ -11918,7 +11963,7 @@
       </c>
       <c r="AD113" s="6"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>148</v>
       </c>
@@ -12008,7 +12053,7 @@
       </c>
       <c r="AD114" s="6"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>149</v>
       </c>
@@ -12098,7 +12143,7 @@
       </c>
       <c r="AD115" s="6"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>152</v>
       </c>
@@ -12188,7 +12233,7 @@
       </c>
       <c r="AD116" s="6"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>153</v>
       </c>
@@ -12278,7 +12323,7 @@
       </c>
       <c r="AD117" s="6"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>154</v>
       </c>
@@ -12368,7 +12413,7 @@
       </c>
       <c r="AD118" s="6"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>155</v>
       </c>
@@ -12458,7 +12503,7 @@
       </c>
       <c r="AD119" s="6"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>156</v>
       </c>
@@ -12548,7 +12593,7 @@
       </c>
       <c r="AD120" s="6"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>157</v>
       </c>
@@ -12638,7 +12683,7 @@
       </c>
       <c r="AD121" s="6"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>158</v>
       </c>
@@ -12728,7 +12773,7 @@
       </c>
       <c r="AD122" s="6"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>159</v>
       </c>
@@ -12818,7 +12863,7 @@
       </c>
       <c r="AD123" s="6"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>160</v>
       </c>
@@ -12908,7 +12953,7 @@
       </c>
       <c r="AD124" s="6"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>161</v>
       </c>
@@ -12998,7 +13043,7 @@
       </c>
       <c r="AD125" s="6"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>162</v>
       </c>
@@ -13088,7 +13133,7 @@
       </c>
       <c r="AD126" s="6"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>163</v>
       </c>
@@ -13178,7 +13223,7 @@
       </c>
       <c r="AD127" s="6"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>164</v>
       </c>
@@ -13268,7 +13313,7 @@
       </c>
       <c r="AD128" s="6"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>165</v>
       </c>
@@ -13358,7 +13403,7 @@
       </c>
       <c r="AD129" s="6"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>166</v>
       </c>
@@ -13448,7 +13493,7 @@
       </c>
       <c r="AD130" s="6"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>167</v>
       </c>
@@ -13538,7 +13583,7 @@
       </c>
       <c r="AD131" s="6"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>168</v>
       </c>
@@ -13628,7 +13673,7 @@
       </c>
       <c r="AD132" s="6"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>169</v>
       </c>
@@ -13718,7 +13763,7 @@
       </c>
       <c r="AD133" s="6"/>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>170</v>
       </c>
@@ -13808,7 +13853,7 @@
       </c>
       <c r="AD134" s="6"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>171</v>
       </c>
@@ -13898,7 +13943,7 @@
       </c>
       <c r="AD135" s="6"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>172</v>
       </c>
@@ -13988,7 +14033,7 @@
       </c>
       <c r="AD136" s="6"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>173</v>
       </c>
@@ -14078,7 +14123,7 @@
       </c>
       <c r="AD137" s="6"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>174</v>
       </c>
@@ -14168,7 +14213,7 @@
       </c>
       <c r="AD138" s="6"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>175</v>
       </c>
@@ -14258,7 +14303,7 @@
       </c>
       <c r="AD139" s="6"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>176</v>
       </c>
@@ -14348,7 +14393,7 @@
       </c>
       <c r="AD140" s="6"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>177</v>
       </c>
@@ -14438,7 +14483,7 @@
       </c>
       <c r="AD141" s="6"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>178</v>
       </c>
@@ -14528,7 +14573,7 @@
       </c>
       <c r="AD142" s="6"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>179</v>
       </c>
@@ -14618,7 +14663,7 @@
       </c>
       <c r="AD143" s="6"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>180</v>
       </c>
@@ -14708,7 +14753,7 @@
       </c>
       <c r="AD144" s="6"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>181</v>
       </c>
@@ -14798,7 +14843,7 @@
       </c>
       <c r="AD145" s="6"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>182</v>
       </c>
@@ -14888,7 +14933,7 @@
       </c>
       <c r="AD146" s="6"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>183</v>
       </c>
@@ -14978,7 +15023,7 @@
       </c>
       <c r="AD147" s="6"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>184</v>
       </c>
@@ -15068,7 +15113,7 @@
       </c>
       <c r="AD148" s="6"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>185</v>
       </c>
@@ -15158,7 +15203,7 @@
       </c>
       <c r="AD149" s="6"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>186</v>
       </c>
@@ -15248,7 +15293,7 @@
       </c>
       <c r="AD150" s="6"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>187</v>
       </c>
@@ -15338,7 +15383,7 @@
       </c>
       <c r="AD151" s="6"/>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>188</v>
       </c>
@@ -15428,7 +15473,7 @@
       </c>
       <c r="AD152" s="6"/>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>189</v>
       </c>
@@ -15518,7 +15563,7 @@
       </c>
       <c r="AD153" s="6"/>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>190</v>
       </c>
@@ -15608,7 +15653,7 @@
       </c>
       <c r="AD154" s="6"/>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>191</v>
       </c>
@@ -15698,7 +15743,7 @@
       </c>
       <c r="AD155" s="6"/>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>192</v>
       </c>
@@ -15788,7 +15833,7 @@
       </c>
       <c r="AD156" s="6"/>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>193</v>
       </c>
@@ -15878,7 +15923,7 @@
       </c>
       <c r="AD157" s="6"/>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>194</v>
       </c>
@@ -15968,7 +16013,7 @@
       </c>
       <c r="AD158" s="6"/>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>195</v>
       </c>
@@ -16058,7 +16103,7 @@
       </c>
       <c r="AD159" s="6"/>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>196</v>
       </c>
@@ -16148,7 +16193,7 @@
       </c>
       <c r="AD160" s="6"/>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>197</v>
       </c>
@@ -16238,7 +16283,7 @@
       </c>
       <c r="AD161" s="6"/>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>198</v>
       </c>
@@ -16328,7 +16373,7 @@
       </c>
       <c r="AD162" s="6"/>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>199</v>
       </c>
@@ -16418,7 +16463,7 @@
       </c>
       <c r="AD163" s="6"/>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>200</v>
       </c>
@@ -16508,7 +16553,7 @@
       </c>
       <c r="AD164" s="6"/>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>201</v>
       </c>
@@ -16598,7 +16643,7 @@
       </c>
       <c r="AD165" s="6"/>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>202</v>
       </c>
@@ -16688,7 +16733,7 @@
       </c>
       <c r="AD166" s="6"/>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>203</v>
       </c>
@@ -16778,7 +16823,7 @@
       </c>
       <c r="AD167" s="6"/>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>204</v>
       </c>
@@ -16868,7 +16913,7 @@
       </c>
       <c r="AD168" s="6"/>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>205</v>
       </c>
@@ -16958,7 +17003,7 @@
       </c>
       <c r="AD169" s="6"/>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>206</v>
       </c>
@@ -17048,7 +17093,7 @@
       </c>
       <c r="AD170" s="6"/>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>207</v>
       </c>
@@ -17138,7 +17183,7 @@
       </c>
       <c r="AD171" s="6"/>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>208</v>
       </c>
@@ -17228,7 +17273,7 @@
       </c>
       <c r="AD172" s="6"/>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>209</v>
       </c>
@@ -17318,7 +17363,7 @@
       </c>
       <c r="AD173" s="6"/>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>210</v>
       </c>
@@ -17408,7 +17453,7 @@
       </c>
       <c r="AD174" s="6"/>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>211</v>
       </c>
@@ -17498,7 +17543,7 @@
       </c>
       <c r="AD175" s="6"/>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>212</v>
       </c>
@@ -17588,7 +17633,7 @@
       </c>
       <c r="AD176" s="6"/>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>213</v>
       </c>
@@ -17678,7 +17723,7 @@
       </c>
       <c r="AD177" s="6"/>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>214</v>
       </c>
@@ -17768,7 +17813,7 @@
       </c>
       <c r="AD178" s="6"/>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>215</v>
       </c>
@@ -17858,7 +17903,7 @@
       </c>
       <c r="AD179" s="6"/>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>216</v>
       </c>
@@ -17948,7 +17993,7 @@
       </c>
       <c r="AD180" s="6"/>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>217</v>
       </c>
@@ -18038,7 +18083,7 @@
       </c>
       <c r="AD181" s="6"/>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>218</v>
       </c>
@@ -18128,7 +18173,7 @@
       </c>
       <c r="AD182" s="6"/>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>219</v>
       </c>
@@ -18218,7 +18263,7 @@
       </c>
       <c r="AD183" s="6"/>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>220</v>
       </c>
@@ -18308,7 +18353,7 @@
       </c>
       <c r="AD184" s="6"/>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>221</v>
       </c>
@@ -18398,7 +18443,7 @@
       </c>
       <c r="AD185" s="6"/>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>222</v>
       </c>
@@ -18488,7 +18533,7 @@
       </c>
       <c r="AD186" s="6"/>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>223</v>
       </c>
@@ -18578,7 +18623,7 @@
       </c>
       <c r="AD187" s="6"/>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>224</v>
       </c>
@@ -18668,7 +18713,7 @@
       </c>
       <c r="AD188" s="6"/>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>225</v>
       </c>
@@ -18758,7 +18803,7 @@
       </c>
       <c r="AD189" s="6"/>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>226</v>
       </c>
@@ -18848,7 +18893,7 @@
       </c>
       <c r="AD190" s="6"/>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -18891,28 +18936,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="0.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.1796875" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="0.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="73" t="str">
+      <c r="B1" s="74" t="str">
         <f>C4</f>
         <v>Age 15+ labor to population (%)</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -18920,7 +18965,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="19" t="s">
         <v>20</v>
@@ -18930,7 +18975,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="21" t="s">
         <v>24</v>
@@ -18942,7 +18987,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="24" t="s">
         <v>31</v>
@@ -18954,7 +18999,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="24" t="s">
         <v>36</v>
@@ -18964,7 +19009,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
@@ -18972,7 +19017,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="30" t="s">
         <v>42</v>
@@ -18982,7 +19027,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="34" t="s">
         <v>47</v>
@@ -18994,7 +19039,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="37" t="s">
         <v>53</v>
@@ -19007,7 +19052,7 @@
       <c r="E10" s="33"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="37" t="s">
         <v>58</v>
@@ -19019,7 +19064,7 @@
       <c r="E11" s="33"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="37" t="s">
         <v>61</v>
@@ -19032,7 +19077,7 @@
       <c r="E12" s="33"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -19040,7 +19085,7 @@
       <c r="E13" s="33"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="30" t="s">
         <v>65</v>
@@ -19050,7 +19095,7 @@
       <c r="E14" s="33"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="34" t="s">
         <v>66</v>
@@ -19062,7 +19107,7 @@
       <c r="E15" s="33"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="37" t="s">
         <v>70</v>
@@ -19072,7 +19117,7 @@
       <c r="E16" s="33"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="32"/>
       <c r="C17" s="42"/>
@@ -19080,7 +19125,7 @@
       <c r="E17" s="33"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="32"/>
       <c r="C18" s="42"/>
@@ -19088,7 +19133,7 @@
       <c r="E18" s="33"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="32"/>
       <c r="C19" s="42"/>
@@ -19096,7 +19141,7 @@
       <c r="E19" s="33"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="32"/>
       <c r="C20" s="42"/>
@@ -19104,7 +19149,7 @@
       <c r="E20" s="33"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="32"/>
       <c r="C21" s="42"/>
@@ -19112,7 +19157,7 @@
       <c r="E21" s="33"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="32"/>
       <c r="C22" s="43"/>
@@ -19120,7 +19165,7 @@
       <c r="E22" s="33"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="40"/>
       <c r="C23" s="44"/>
@@ -19128,7 +19173,7 @@
       <c r="E23" s="33"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -19136,7 +19181,7 @@
       <c r="E24" s="33"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -19162,19 +19207,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="21" width="5.54296875" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -19207,7 +19252,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="10"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="15"/>
@@ -19234,7 +19279,7 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -19261,7 +19306,7 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="16"/>
@@ -19288,7 +19333,7 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="16"/>
@@ -19315,7 +19360,7 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="10"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="16"/>
@@ -19342,7 +19387,7 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -19369,7 +19414,7 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -19396,7 +19441,7 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -19423,7 +19468,7 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -19450,7 +19495,7 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -19477,7 +19522,7 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -19504,7 +19549,7 @@
       <c r="X12" s="9"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -19531,7 +19576,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="10"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -19558,7 +19603,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="10"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -19585,7 +19630,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="10"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -19612,7 +19657,7 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -19639,7 +19684,7 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -19666,7 +19711,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="10"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -19693,7 +19738,7 @@
       <c r="X19" s="9"/>
       <c r="Y19" s="10"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -19720,7 +19765,7 @@
       <c r="X20" s="9"/>
       <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -19747,7 +19792,7 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -19774,7 +19819,7 @@
       <c r="X22" s="9"/>
       <c r="Y22" s="10"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -19801,7 +19846,7 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="10"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -19828,7 +19873,7 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="10"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -19855,7 +19900,7 @@
       <c r="X25" s="9"/>
       <c r="Y25" s="10"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -19882,7 +19927,7 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="10"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -19909,7 +19954,7 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="10"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -19936,7 +19981,7 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="10"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -19963,7 +20008,7 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="10"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -19990,7 +20035,7 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -20017,7 +20062,7 @@
       <c r="X31" s="9"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -20044,7 +20089,7 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="10"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -20071,7 +20116,7 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="10"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -20098,7 +20143,7 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="10"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -20125,7 +20170,7 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="10"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -20152,7 +20197,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="10"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -20179,7 +20224,7 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="10"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -20206,7 +20251,7 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="10"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -20233,7 +20278,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -20260,7 +20305,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="10"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -20287,7 +20332,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -20314,7 +20359,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -20341,7 +20386,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -20368,7 +20413,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="10"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -20395,7 +20440,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -20422,7 +20467,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -20449,7 +20494,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -20476,7 +20521,7 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="10"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -20503,7 +20548,7 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="10"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -20530,7 +20575,7 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="10"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -20557,7 +20602,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -20584,7 +20629,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -20611,7 +20656,7 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="10"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -20638,7 +20683,7 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="10"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -20665,7 +20710,7 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="10"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -20692,7 +20737,7 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="10"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -20719,7 +20764,7 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="10"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -20746,7 +20791,7 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="10"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -20773,7 +20818,7 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="10"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -20800,7 +20845,7 @@
       <c r="X60" s="9"/>
       <c r="Y60" s="10"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -20827,7 +20872,7 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="10"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -20854,7 +20899,7 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="10"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -20881,7 +20926,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="10"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -20908,7 +20953,7 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="10"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -20935,7 +20980,7 @@
       <c r="X65" s="9"/>
       <c r="Y65" s="10"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -20962,7 +21007,7 @@
       <c r="X66" s="9"/>
       <c r="Y66" s="10"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -20989,7 +21034,7 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="10"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -21016,7 +21061,7 @@
       <c r="X68" s="9"/>
       <c r="Y68" s="10"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -21043,7 +21088,7 @@
       <c r="X69" s="9"/>
       <c r="Y69" s="10"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -21070,7 +21115,7 @@
       <c r="X70" s="9"/>
       <c r="Y70" s="10"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -21097,7 +21142,7 @@
       <c r="X71" s="9"/>
       <c r="Y71" s="10"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -21124,7 +21169,7 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="10"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -21151,7 +21196,7 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="10"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -21178,7 +21223,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="10"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -21205,7 +21250,7 @@
       <c r="X75" s="9"/>
       <c r="Y75" s="10"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -21232,7 +21277,7 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="10"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -21259,7 +21304,7 @@
       <c r="X77" s="9"/>
       <c r="Y77" s="10"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -21286,7 +21331,7 @@
       <c r="X78" s="9"/>
       <c r="Y78" s="10"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -21313,7 +21358,7 @@
       <c r="X79" s="9"/>
       <c r="Y79" s="10"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -21340,7 +21385,7 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="10"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -21367,7 +21412,7 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="10"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -21394,7 +21439,7 @@
       <c r="X82" s="9"/>
       <c r="Y82" s="10"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -21421,7 +21466,7 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="10"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -21448,7 +21493,7 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="10"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -21475,7 +21520,7 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="10"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -21502,7 +21547,7 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="10"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -21529,7 +21574,7 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="10"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -21556,7 +21601,7 @@
       <c r="X88" s="9"/>
       <c r="Y88" s="10"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -21583,7 +21628,7 @@
       <c r="X89" s="9"/>
       <c r="Y89" s="10"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -21610,7 +21655,7 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="10"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -21637,7 +21682,7 @@
       <c r="X91" s="9"/>
       <c r="Y91" s="10"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -21664,7 +21709,7 @@
       <c r="X92" s="9"/>
       <c r="Y92" s="10"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -21691,7 +21736,7 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="10"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -21718,7 +21763,7 @@
       <c r="X94" s="9"/>
       <c r="Y94" s="10"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -21745,7 +21790,7 @@
       <c r="X95" s="9"/>
       <c r="Y95" s="10"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -21772,7 +21817,7 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="10"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -21799,7 +21844,7 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="10"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -21826,7 +21871,7 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="10"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -21853,7 +21898,7 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="10"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -21880,7 +21925,7 @@
       <c r="X100" s="9"/>
       <c r="Y100" s="10"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -21907,7 +21952,7 @@
       <c r="X101" s="9"/>
       <c r="Y101" s="10"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -21934,7 +21979,7 @@
       <c r="X102" s="9"/>
       <c r="Y102" s="10"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -21961,7 +22006,7 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="10"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -21999,32 +22044,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" customWidth="1"/>
-    <col min="3" max="3" width="1.140625" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="54.453125" customWidth="1"/>
+    <col min="3" max="3" width="1.1796875" customWidth="1"/>
+    <col min="4" max="4" width="56.54296875" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="31"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>95</v>
       </c>
@@ -22037,7 +22082,7 @@
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>106</v>
       </c>
@@ -22051,7 +22096,7 @@
       </c>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>110</v>
       </c>
@@ -22064,35 +22109,35 @@
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
       <c r="C6" s="56"/>
       <c r="D6" s="57"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
       <c r="D7" s="58"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="60"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="60"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -22116,27 +22161,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="0.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="0.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="74"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -22144,17 +22189,17 @@
       <c r="E2" s="12"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="18"/>
       <c r="E3" s="12"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="61" t="s">
         <v>129</v>
@@ -22166,7 +22211,7 @@
       <c r="E4" s="65"/>
       <c r="F4" s="66"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="67" t="s">
         <v>144</v>
@@ -22178,7 +22223,7 @@
       <c r="E5" s="65"/>
       <c r="F5" s="66"/>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="67" t="s">
         <v>150</v>
@@ -22190,7 +22235,7 @@
       <c r="E6" s="65"/>
       <c r="F6" s="66"/>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
       <c r="B7" s="69"/>
       <c r="C7" s="70"/>
@@ -22198,7 +22243,7 @@
       <c r="E7" s="65"/>
       <c r="F7" s="66"/>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="71"/>
       <c r="C8" s="71"/>
@@ -22206,7 +22251,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -22214,7 +22259,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -22222,7 +22267,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -22245,17 +22290,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="1" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="21" width="5.54296875" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>137</v>
       </c>
@@ -22286,7 +22331,7 @@
       <c r="X1" s="9"/>
       <c r="Y1" s="10"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -22313,7 +22358,7 @@
       <c r="X2" s="9"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -22340,7 +22385,7 @@
       <c r="X3" s="9"/>
       <c r="Y3" s="10"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -22367,7 +22412,7 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="10"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -22394,7 +22439,7 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="10"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -22421,7 +22466,7 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -22448,7 +22493,7 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="10"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -22475,7 +22520,7 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="10"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -22502,7 +22547,7 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="10"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -22529,7 +22574,7 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="10"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -22556,7 +22601,7 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="10"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -22583,7 +22628,7 @@
       <c r="X12" s="9"/>
       <c r="Y12" s="10"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -22610,7 +22655,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="10"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -22637,7 +22682,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="10"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -22664,7 +22709,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="10"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -22691,7 +22736,7 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="10"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -22718,7 +22763,7 @@
       <c r="X17" s="9"/>
       <c r="Y17" s="10"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -22745,7 +22790,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="10"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -22772,7 +22817,7 @@
       <c r="X19" s="9"/>
       <c r="Y19" s="10"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -22799,7 +22844,7 @@
       <c r="X20" s="9"/>
       <c r="Y20" s="10"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -22826,7 +22871,7 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="10"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -22853,7 +22898,7 @@
       <c r="X22" s="9"/>
       <c r="Y22" s="10"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -22880,7 +22925,7 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="10"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -22907,7 +22952,7 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="10"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -22934,7 +22979,7 @@
       <c r="X25" s="9"/>
       <c r="Y25" s="10"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -22961,7 +23006,7 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="10"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -22988,7 +23033,7 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="10"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -23015,7 +23060,7 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="10"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -23042,7 +23087,7 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="10"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -23069,7 +23114,7 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="10"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -23096,7 +23141,7 @@
       <c r="X31" s="9"/>
       <c r="Y31" s="10"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -23123,7 +23168,7 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="10"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -23150,7 +23195,7 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="10"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -23177,7 +23222,7 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="10"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -23204,7 +23249,7 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="10"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -23231,7 +23276,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="10"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -23258,7 +23303,7 @@
       <c r="X37" s="9"/>
       <c r="Y37" s="10"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -23285,7 +23330,7 @@
       <c r="X38" s="9"/>
       <c r="Y38" s="10"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -23312,7 +23357,7 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="10"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -23339,7 +23384,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="10"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -23366,7 +23411,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="10"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -23393,7 +23438,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="10"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -23420,7 +23465,7 @@
       <c r="X43" s="9"/>
       <c r="Y43" s="10"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -23447,7 +23492,7 @@
       <c r="X44" s="9"/>
       <c r="Y44" s="10"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -23474,7 +23519,7 @@
       <c r="X45" s="9"/>
       <c r="Y45" s="10"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -23501,7 +23546,7 @@
       <c r="X46" s="9"/>
       <c r="Y46" s="10"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -23528,7 +23573,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -23555,7 +23600,7 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="10"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -23582,7 +23627,7 @@
       <c r="X49" s="9"/>
       <c r="Y49" s="10"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -23609,7 +23654,7 @@
       <c r="X50" s="9"/>
       <c r="Y50" s="10"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -23636,7 +23681,7 @@
       <c r="X51" s="9"/>
       <c r="Y51" s="10"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -23663,7 +23708,7 @@
       <c r="X52" s="9"/>
       <c r="Y52" s="10"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -23690,7 +23735,7 @@
       <c r="X53" s="9"/>
       <c r="Y53" s="10"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -23717,7 +23762,7 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="10"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -23744,7 +23789,7 @@
       <c r="X55" s="9"/>
       <c r="Y55" s="10"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -23771,7 +23816,7 @@
       <c r="X56" s="9"/>
       <c r="Y56" s="10"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -23798,7 +23843,7 @@
       <c r="X57" s="9"/>
       <c r="Y57" s="10"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -23825,7 +23870,7 @@
       <c r="X58" s="9"/>
       <c r="Y58" s="10"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -23852,7 +23897,7 @@
       <c r="X59" s="9"/>
       <c r="Y59" s="10"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -23879,7 +23924,7 @@
       <c r="X60" s="9"/>
       <c r="Y60" s="10"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -23906,7 +23951,7 @@
       <c r="X61" s="9"/>
       <c r="Y61" s="10"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -23933,7 +23978,7 @@
       <c r="X62" s="9"/>
       <c r="Y62" s="10"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -23960,7 +24005,7 @@
       <c r="X63" s="9"/>
       <c r="Y63" s="10"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -23987,7 +24032,7 @@
       <c r="X64" s="9"/>
       <c r="Y64" s="10"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -24014,7 +24059,7 @@
       <c r="X65" s="9"/>
       <c r="Y65" s="10"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -24041,7 +24086,7 @@
       <c r="X66" s="9"/>
       <c r="Y66" s="10"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -24068,7 +24113,7 @@
       <c r="X67" s="9"/>
       <c r="Y67" s="10"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -24095,7 +24140,7 @@
       <c r="X68" s="9"/>
       <c r="Y68" s="10"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -24122,7 +24167,7 @@
       <c r="X69" s="9"/>
       <c r="Y69" s="10"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -24149,7 +24194,7 @@
       <c r="X70" s="9"/>
       <c r="Y70" s="10"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -24176,7 +24221,7 @@
       <c r="X71" s="9"/>
       <c r="Y71" s="10"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -24203,7 +24248,7 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="10"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -24230,7 +24275,7 @@
       <c r="X73" s="9"/>
       <c r="Y73" s="10"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -24257,7 +24302,7 @@
       <c r="X74" s="9"/>
       <c r="Y74" s="10"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -24284,7 +24329,7 @@
       <c r="X75" s="9"/>
       <c r="Y75" s="10"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -24311,7 +24356,7 @@
       <c r="X76" s="9"/>
       <c r="Y76" s="10"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -24338,7 +24383,7 @@
       <c r="X77" s="9"/>
       <c r="Y77" s="10"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -24365,7 +24410,7 @@
       <c r="X78" s="9"/>
       <c r="Y78" s="10"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -24392,7 +24437,7 @@
       <c r="X79" s="9"/>
       <c r="Y79" s="10"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -24419,7 +24464,7 @@
       <c r="X80" s="9"/>
       <c r="Y80" s="10"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -24446,7 +24491,7 @@
       <c r="X81" s="9"/>
       <c r="Y81" s="10"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -24473,7 +24518,7 @@
       <c r="X82" s="9"/>
       <c r="Y82" s="10"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -24500,7 +24545,7 @@
       <c r="X83" s="9"/>
       <c r="Y83" s="10"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -24527,7 +24572,7 @@
       <c r="X84" s="9"/>
       <c r="Y84" s="10"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -24554,7 +24599,7 @@
       <c r="X85" s="9"/>
       <c r="Y85" s="10"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -24581,7 +24626,7 @@
       <c r="X86" s="9"/>
       <c r="Y86" s="10"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -24608,7 +24653,7 @@
       <c r="X87" s="9"/>
       <c r="Y87" s="10"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -24635,7 +24680,7 @@
       <c r="X88" s="9"/>
       <c r="Y88" s="10"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -24662,7 +24707,7 @@
       <c r="X89" s="9"/>
       <c r="Y89" s="10"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -24689,7 +24734,7 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="10"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -24716,7 +24761,7 @@
       <c r="X91" s="9"/>
       <c r="Y91" s="10"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -24743,7 +24788,7 @@
       <c r="X92" s="9"/>
       <c r="Y92" s="10"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -24770,7 +24815,7 @@
       <c r="X93" s="9"/>
       <c r="Y93" s="10"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -24797,7 +24842,7 @@
       <c r="X94" s="9"/>
       <c r="Y94" s="10"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -24824,7 +24869,7 @@
       <c r="X95" s="9"/>
       <c r="Y95" s="10"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -24851,7 +24896,7 @@
       <c r="X96" s="9"/>
       <c r="Y96" s="10"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -24878,7 +24923,7 @@
       <c r="X97" s="9"/>
       <c r="Y97" s="10"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -24905,7 +24950,7 @@
       <c r="X98" s="9"/>
       <c r="Y98" s="10"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -24932,7 +24977,7 @@
       <c r="X99" s="9"/>
       <c r="Y99" s="10"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -24959,7 +25004,7 @@
       <c r="X100" s="9"/>
       <c r="Y100" s="10"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -24986,7 +25031,7 @@
       <c r="X101" s="9"/>
       <c r="Y101" s="10"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -25013,7 +25058,7 @@
       <c r="X102" s="9"/>
       <c r="Y102" s="10"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -25040,7 +25085,7 @@
       <c r="X103" s="9"/>
       <c r="Y103" s="10"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -25067,7 +25112,7 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="10"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
